--- a/InputData/UNDP_Patient_Portal.xlsx
+++ b/InputData/UNDP_Patient_Portal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trio_Tree_Automation_project_03-06-2025\UNDP_Patient_Portal\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DC5F1C-3868-47E1-8A6D-6C33645DD6AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre_Registration_Page" sheetId="8" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>NIC</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Other_Name</t>
   </si>
   <si>
-    <t>Santosh</t>
-  </si>
-  <si>
     <t>SHARMA</t>
   </si>
   <si>
@@ -67,12 +65,6 @@
     <t>DELHI</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
     <t>Abhey Garden</t>
   </si>
   <si>
@@ -143,12 +135,24 @@
   </si>
   <si>
     <t>AUTOMATION</t>
+  </si>
+  <si>
+    <t>Anup</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Flacq</t>
+  </si>
+  <si>
+    <t>Central Flacq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,6 +300,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -331,6 +352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,10 +544,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
@@ -519,6 +557,18 @@
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -535,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -544,42 +594,42 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -588,61 +638,61 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="4">
         <v>32925</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1">
+        <v>42704</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1">
-        <v>110033</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -659,30 +709,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
